--- a/medicine/Psychotrope/Airmail_(cocktail)/Airmail_(cocktail).xlsx
+++ b/medicine/Psychotrope/Airmail_(cocktail)/Airmail_(cocktail).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Air mail est un cocktail mélangeant du rhum, du jus de citron, du miel et du Vin effervescent[1]. 
-C'est également une marque de boissons créés et élaborées à Cognac depuis 2020[2].
+L'Air mail est un cocktail mélangeant du rhum, du jus de citron, du miel et du Vin effervescent. 
+C'est également une marque de boissons créés et élaborées à Cognac depuis 2020.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pendant de nombreuses années, il a été considéré que l'origine du cocktail venait du livre Handbook for Host datant de 1949[3] mais la véritable origine de ce cocktail remonte à 1941 dans le livre Here's How Mixed Drinks[4]. Selon le président de Bacardí, le cocktail a été créé pour rendre hommage au service de Poste aérienne[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant de nombreuses années, il a été considéré que l'origine du cocktail venait du livre Handbook for Host datant de 1949 mais la véritable origine de ce cocktail remonte à 1941 dans le livre Here's How Mixed Drinks. Selon le président de Bacardí, le cocktail a été créé pour rendre hommage au service de Poste aérienne.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cocktail se prépare avec 1 mesure de rhum, mesure de jus de citron, 1/2 mesure de miel et 1 mesure de Vin effervescent[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cocktail se prépare avec 1 mesure de rhum, mesure de jus de citron, 1/2 mesure de miel et 1 mesure de Vin effervescent. 
 </t>
         </is>
       </c>
